--- a/02_outputs/pesquisas-infos.xlsx
+++ b/02_outputs/pesquisas-infos.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L110"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>9-2014</t>
+          <t>09-2014</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>9-2014</t>
+          <t>09-2014</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>9-2014</t>
+          <t>09-2014</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -7144,6 +7144,378 @@
       <c r="L110" t="inlineStr">
         <is>
           <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>04843</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Data Folha</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>PERFIL IDEOLÓGICO</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>06-2023</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Eleitores de 16 anos ou mais</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>p901a</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>P.901 Agora vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas. - Possuir arma legalizada deveria ser um direito do cidadão para se defender</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Não sabe</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>04843</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Data Folha</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>PERFIL IDEOLÓGICO</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>06-2023</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Eleitores de 16 anos ou mais</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>p901a</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>P.901 Agora vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas. - Possuir arma legalizada deveria ser um direito do cidadão para se defender</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Concorda totalmente</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>04843</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Data Folha</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>PERFIL IDEOLÓGICO</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>06-2023</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Eleitores de 16 anos ou mais</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>p901a</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>P.901 Agora vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas. - Possuir arma legalizada deveria ser um direito do cidadão para se defender</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Concorda em parte</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>04843</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Data Folha</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>PERFIL IDEOLÓGICO</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>06-2023</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Eleitores de 16 anos ou mais</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>p901a</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>P.901 Agora vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas. - Possuir arma legalizada deveria ser um direito do cidadão para se defender</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Discorda em parte</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>04843</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Data Folha</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>PERFIL IDEOLÓGICO</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>06-2023</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Eleitores de 16 anos ou mais</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>p901a</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>P.901 Agora vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas. - Possuir arma legalizada deveria ser um direito do cidadão para se defender</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Nem concorda, nem discorda</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>04843</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Data Folha</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>PERFIL IDEOLÓGICO</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>06-2023</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Eleitores de 16 anos ou mais</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>p901a</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>P.901 Agora vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas. - Possuir arma legalizada deveria ser um direito do cidadão para se defender</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Discorda totalmente</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>2010</t>
         </is>
       </c>
     </row>

--- a/02_outputs/pesquisas-infos.xlsx
+++ b/02_outputs/pesquisas-infos.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,45 +375,50 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>data_inicio</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>data_fim</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>tam_amostra_informada</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>universo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cod_pergunta</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>pergunta</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>alternativas</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>qtde_respostas</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>tam_amostra_calculada</t>
         </is>
@@ -422,1056 +427,1146 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01601</t>
+          <t>Lapop-2012</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data Folha</t>
+          <t>Vox Populi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
+          <t>AmericasBarometer 2012: Brazil</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>02-2002</t>
+          <t>01-03-2012</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>18-04-2012</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>p39</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gostaria de lembrar que não vou pedir seu nome e nada que possa identificá-lo, o importante é que você seja sincero. Você ou alguém na sua casa possui arma de fogo ?</t>
+          <t>arm1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Entrevistado possui arma</t>
+          <t>ARM1. O(a) senhor(a) ou alguém em sua casa possui uma arma de fogo como um revól</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1500</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01601</t>
+          <t>Lapop-2012</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Data Folha</t>
+          <t>Vox Populi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
+          <t>AmericasBarometer 2012: Brazil</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>02-2002</t>
+          <t>01-03-2012</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>18-04-2012</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>p39</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Gostaria de lembrar que não vou pedir seu nome e nada que possa identificá-lo, o importante é que você seja sincero. Você ou alguém na sua casa possui arma de fogo ?</t>
+          <t>arm1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Alguém na casa possui arma</t>
+          <t>ARM1. O(a) senhor(a) ou alguém em sua casa possui uma arma de fogo como um revól</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1500</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01601</t>
+          <t>Lapop-2012</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Data Folha</t>
+          <t>Vox Populi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
+          <t>AmericasBarometer 2012: Brazil</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>02-2002</t>
+          <t>01-03-2012</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>18-04-2012</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>p39</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Gostaria de lembrar que não vou pedir seu nome e nada que possa identificá-lo, o importante é que você seja sincero. Você ou alguém na sua casa possui arma de fogo ?</t>
+          <t>arm1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Não possui arma</t>
+          <t>ARM1. O(a) senhor(a) ou alguém em sua casa possui uma arma de fogo como um revól</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3436</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1500</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01601</t>
+          <t>Lapop-2012</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Data Folha</t>
+          <t>Vox Populi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
+          <t>AmericasBarometer 2012: Brazil</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>02-2002</t>
+          <t>01-03-2012</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>18-04-2012</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>p39</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Gostaria de lembrar que não vou pedir seu nome e nada que possa identificá-lo, o importante é que você seja sincero. Você ou alguém na sua casa possui arma de fogo ?</t>
+          <t>arm1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Não sabe/ não respondeu</t>
+          <t>ARM1. O(a) senhor(a) ou alguém em sua casa possui uma arma de fogo como um revól</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1500</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01601</t>
+          <t>Lapop-2012</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Data Folha</t>
+          <t>Vox Populi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
+          <t>AmericasBarometer 2012: Brazil</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>02-2002</t>
+          <t>01-03-2012</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>18-04-2012</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>p40</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>(Caso o entrevistado não tenha arma) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
+          <t>arm2</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>ARM2. Se o(a) sr./sra. pudesse, teria uma arma de fogo como um revólver ou espin</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1500</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01601</t>
+          <t>Lapop-2012</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Data Folha</t>
+          <t>Vox Populi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
+          <t>AmericasBarometer 2012: Brazil</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>02-2002</t>
+          <t>01-03-2012</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>18-04-2012</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>p40</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>(Caso o entrevistado não tenha arma) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
+          <t>arm2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>ARM2. Se o(a) sr./sra. pudesse, teria uma arma de fogo como um revólver ou espin</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2823</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1500</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01601</t>
+          <t>Lapop-2012</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Data Folha</t>
+          <t>Vox Populi</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
+          <t>AmericasBarometer 2012: Brazil</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>02-2002</t>
+          <t>01-03-2012</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>18-04-2012</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>p40</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>(Caso o entrevistado não tenha arma) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
+          <t>arm2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Não sabe</t>
+          <t>ARM2. Se o(a) sr./sra. pudesse, teria uma arma de fogo como um revólver ou espin</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1500</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01601</t>
+          <t>Lapop-2012</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Data Folha</t>
+          <t>Vox Populi</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
+          <t>AmericasBarometer 2012: Brazil</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>02-2002</t>
+          <t>01-03-2012</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>18-04-2012</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>p40</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>(Caso o entrevistado não tenha arma) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
+          <t>arm2</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ARM2. Se o(a) sr./sra. pudesse, teria uma arma de fogo como um revólver ou espin</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1500</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01601</t>
+          <t>Lapop-2012</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Data Folha</t>
+          <t>Vox Populi</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
+          <t>AmericasBarometer 2012: Brazil</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>02-2002</t>
+          <t>01-03-2012</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>18-04-2012</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>p41</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Você é a favor ou contra a venda de armas de fogo a civis ?</t>
+          <t>arm2</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Não sabe</t>
+          <t>ARM2. Se o(a) sr./sra. pudesse, teria uma arma de fogo como um revólver ou espin</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>1146</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1500</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01601</t>
+          <t>Lapop-2019</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Data Folha</t>
+          <t>IBOPE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
+          <t>AmericasBarometer 2018/19: Brazil</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>02-2002</t>
+          <t>29-01-2019</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>03-03-2019</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>p41</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Você é a favor ou contra a venda de armas de fogo a civis ?</t>
+          <t>arm2</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>A favor</t>
+          <t>ARM2. Se o(a) sr./sra. pudesse, teria uma arma de fogo como um revólver ou espin</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1498</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01601</t>
+          <t>Lapop-2019</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Data Folha</t>
+          <t>IBOPE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
+          <t>AmericasBarometer 2018/19: Brazil</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>02-2002</t>
+          <t>29-01-2019</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>03-03-2019</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>p41</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Você é a favor ou contra a venda de armas de fogo a civis ?</t>
+          <t>arm2</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Contra</t>
+          <t>ARM2. Se o(a) sr./sra. pudesse, teria uma arma de fogo como um revólver ou espin</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2941</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1498</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01601</t>
+          <t>Lapop-2019</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Data Folha</t>
+          <t>IBOPE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
+          <t>AmericasBarometer 2018/19: Brazil</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>02-2002</t>
+          <t>29-01-2019</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>03-03-2019</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>p41</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Você é a favor ou contra a venda de armas de fogo a civis ?</t>
+          <t>arm2</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>ARM2. Se o(a) sr./sra. pudesse, teria uma arma de fogo como um revólver ou espin</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1498</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>02528</t>
+          <t>Lapop-2019</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Data Folha</t>
+          <t>IBOPE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
+          <t>AmericasBarometer 2018/19: Brazil</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10-2005</t>
+          <t>29-01-2019</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>03-03-2019</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>p3</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>No próximo domingo haverá o referendo sobre a proibição de armas de fogo e munição no Brasil. Você vai estar aqui e votar no referendo, domingo que vem, ou pretende sair da cidade e justificar?</t>
+          <t>arm2</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Vai estar na cidade e votar (PROSSIGA)</t>
+          <t>ARM2. Se o(a) sr./sra. pudesse, teria uma arma de fogo como um revólver ou espin</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2190</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1498</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>02528</t>
+          <t>Latino Barómetro-2011</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Data Folha</t>
+          <t>IBOPE Inteligencia Brasil</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
+          <t>Latino Barómetro-2011</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10-2005</t>
+          <t>04-09-2011</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>06-10-2011</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>p3</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>No próximo domingo haverá o referendo sobre a proibição de armas de fogo e munição no Brasil. Você vai estar aqui e votar no referendo, domingo que vem, ou pretende sair da cidade e justificar?</t>
+          <t>p82n</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Vai sair da cidade e justificar (PULE PARA P.9)</t>
+          <t>Posesion de arma de fuego</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>1568</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>20204</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>02528</t>
+          <t>Latino Barómetro-2011</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Data Folha</t>
+          <t>IBOPE Inteligencia Brasil</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
+          <t>Latino Barómetro-2011</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10-2005</t>
+          <t>04-09-2011</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>06-10-2011</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>p3</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>No próximo domingo haverá o referendo sobre a proibição de armas de fogo e munição no Brasil. Você vai estar aqui e votar no referendo, domingo que vem, ou pretende sair da cidade e justificar?</t>
+          <t>p82n</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Não vai votar (PULE PARA P.9) (ANOTE MOTIVO)</t>
+          <t>Posesion de arma de fuego</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>18082</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>20204</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>02528</t>
+          <t>Latino Barómetro-2011</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Data Folha</t>
+          <t>IBOPE Inteligencia Brasil</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
+          <t>Latino Barómetro-2011</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10-2005</t>
+          <t>04-09-2011</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>06-10-2011</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>p4</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>(PARA QUEM VAI ESTAR NA CIDADE E VOTAR - P.3 = 1) Na urna eletrônica haverá a seguinte pergunta: o comércio de armas de fogo e munição deve ser proibido no Brasil? Se o referendo fosse hoje você votaria sim ou não?</t>
+          <t>p82n</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Posesion de arma de fuego</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>No contesta</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>20204</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>02528</t>
+          <t>Latino Barómetro-2011</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Data Folha</t>
+          <t>IBOPE Inteligencia Brasil</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
+          <t>Latino Barómetro-2011</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10-2005</t>
+          <t>04-09-2011</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>06-10-2011</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>p4</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>(PARA QUEM VAI ESTAR NA CIDADE E VOTAR - P.3 = 1) Na urna eletrônica haverá a seguinte pergunta: o comércio de armas de fogo e munição deve ser proibido no Brasil? Se o referendo fosse hoje você votaria sim ou não?</t>
+          <t>p82n</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Posesion de arma de fuego</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>No sabe</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>20204</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>02528</t>
+          <t>01601</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1481,59 +1576,64 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
+          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10-2005</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>3857</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>p4</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>(PARA QUEM VAI ESTAR NA CIDADE E VOTAR - P.3 = 1) Na urna eletrônica haverá a seguinte pergunta: o comércio de armas de fogo e munição deve ser proibido no Brasil? Se o referendo fosse hoje você votaria sim ou não?</t>
+          <t>p39</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Não sabe</t>
+          <t>Gostaria de lembrar que não vou pedir seu nome e nada que possa identificá-lo, o importante é que você seja sincero. Você ou alguém na sua casa possui arma de fogo ?</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>Entrevistado possui arma</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>3857</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>02528</t>
+          <t>01601</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1543,59 +1643,64 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
+          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10-2005</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>3857</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>p4</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>(PARA QUEM VAI ESTAR NA CIDADE E VOTAR - P.3 = 1) Na urna eletrônica haverá a seguinte pergunta: o comércio de armas de fogo e munição deve ser proibido no Brasil? Se o referendo fosse hoje você votaria sim ou não?</t>
+          <t>p39</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Em branco</t>
+          <t>Gostaria de lembrar que não vou pedir seu nome e nada que possa identificá-lo, o importante é que você seja sincero. Você ou alguém na sua casa possui arma de fogo ?</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>Alguém na casa possui arma</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>3857</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>02528</t>
+          <t>01601</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1605,59 +1710,64 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
+          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10-2005</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>3857</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>p4</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>(PARA QUEM VAI ESTAR NA CIDADE E VOTAR - P.3 = 1) Na urna eletrônica haverá a seguinte pergunta: o comércio de armas de fogo e munição deve ser proibido no Brasil? Se o referendo fosse hoje você votaria sim ou não?</t>
+          <t>p39</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Nulo</t>
+          <t>Gostaria de lembrar que não vou pedir seu nome e nada que possa identificá-lo, o importante é que você seja sincero. Você ou alguém na sua casa possui arma de fogo ?</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>Não possui arma</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>3436</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>3857</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>02528</t>
+          <t>01601</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1667,54 +1777,64 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
+          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10-2005</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>3857</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>p4</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>(PARA QUEM VAI ESTAR NA CIDADE E VOTAR - P.3 = 1) Na urna eletrônica haverá a seguinte pergunta: o comércio de armas de fogo e munição deve ser proibido no Brasil? Se o referendo fosse hoje você votaria sim ou não?</t>
+          <t>p39</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Gostaria de lembrar que não vou pedir seu nome e nada que possa identificá-lo, o importante é que você seja sincero. Você ou alguém na sua casa possui arma de fogo ?</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>Não sabe/ não respondeu</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>3857</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>02528</t>
+          <t>01601</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1724,59 +1844,64 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
+          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10-2005</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>3857</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>p5</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>(PARA QUEM VOTARIA NO 'SIM' OU NO 'NÃO' OU DISSE QUE VAI ANULAR / VOTAR NULO NA P.4) Qual número você vai digitar na urna eletrônica para confirmar seu voto no referendo de domingo? (SE VOTARIA EM BRANCO OU ESTÁ INDECISO, NÃO APLIQUE A PERGUNTA)?</t>
+          <t>p40</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1-Não</t>
+          <t>(Caso o entrevistado não tenha arma) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>3857</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>02528</t>
+          <t>01601</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1786,59 +1911,64 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
+          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10-2005</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>3857</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>p5</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>(PARA QUEM VOTARIA NO 'SIM' OU NO 'NÃO' OU DISSE QUE VAI ANULAR / VOTAR NULO NA P.4) Qual número você vai digitar na urna eletrônica para confirmar seu voto no referendo de domingo? (SE VOTARIA EM BRANCO OU ESTÁ INDECISO, NÃO APLIQUE A PERGUNTA)?</t>
+          <t>p40</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2-Sim</t>
+          <t>(Caso o entrevistado não tenha arma) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>2823</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>3857</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>02528</t>
+          <t>01601</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1848,59 +1978,64 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
+          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10-2005</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>3857</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>p5</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>(PARA QUEM VOTARIA NO 'SIM' OU NO 'NÃO' OU DISSE QUE VAI ANULAR / VOTAR NULO NA P.4) Qual número você vai digitar na urna eletrônica para confirmar seu voto no referendo de domingo? (SE VOTARIA EM BRANCO OU ESTÁ INDECISO, NÃO APLIQUE A PERGUNTA)?</t>
+          <t>p40</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Não sabe o número</t>
+          <t>(Caso o entrevistado não tenha arma) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>3857</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>02528</t>
+          <t>01601</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1910,59 +2045,59 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
+          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>10-2005</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>3857</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>p5</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>(PARA QUEM VOTARIA NO 'SIM' OU NO 'NÃO' OU DISSE QUE VAI ANULAR / VOTAR NULO NA P.4) Qual número você vai digitar na urna eletrônica para confirmar seu voto no referendo de domingo? (SE VOTARIA EM BRANCO OU ESTÁ INDECISO, NÃO APLIQUE A PERGUNTA)?</t>
+          <t>p40</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Não sabe como anular o voto</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>20</t>
+          <t>(Caso o entrevistado não tenha arma) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>3857</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>02528</t>
+          <t>01601</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1972,54 +2107,64 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
+          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10-2005</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>3857</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>p5</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>(PARA QUEM VOTARIA NO 'SIM' OU NO 'NÃO' OU DISSE QUE VAI ANULAR / VOTAR NULO NA P.4) Qual número você vai digitar na urna eletrônica para confirmar seu voto no referendo de domingo? (SE VOTARIA EM BRANCO OU ESTÁ INDECISO, NÃO APLIQUE A PERGUNTA)?</t>
+          <t>p41</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Você é a favor ou contra a venda de armas de fogo a civis ?</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>3857</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>02528</t>
+          <t>01601</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2029,59 +2174,64 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
+          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10-2005</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>3857</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>p6</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Apenas para confirmar sua opinião:</t>
+          <t>p41</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Não sabe</t>
+          <t>Você é a favor ou contra a venda de armas de fogo a civis ?</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>A favor</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>3857</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>02528</t>
+          <t>01601</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2091,59 +2241,64 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
+          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10-2005</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>3857</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>p6</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Apenas para confirmar sua opinião:</t>
+          <t>p41</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>O comércio armas/munição deve continuar permitido como hoje</t>
+          <t>Você é a favor ou contra a venda de armas de fogo a civis ?</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1116</t>
+          <t>Contra</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>2941</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>3857</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>02528</t>
+          <t>01601</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2153,52 +2308,57 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
+          <t>AVALIAÇÃO PRESIDENTE FERNANDO HENRIQUE - INTENÇÃO DE VOTO PARA PRESIDENTE - CRISE NA SEGURANÇA PÚBLICA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10-2005</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>02-2002</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>3857</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>p6</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Apenas para confirmar sua opinião:</t>
+          <t>p41</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>O comércio de armas/munição deve ser proibido no Brasil?</t>
+          <t>Você é a favor ou contra a venda de armas de fogo a civis ?</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>3857</t>
         </is>
       </c>
     </row>
@@ -2225,40 +2385,45 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>10-2005</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>2537</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>p6</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Apenas para confirmar sua opinião:</t>
+          <t>p3</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Outras respostas</t>
+          <t>No próximo domingo haverá o referendo sobre a proibição de armas de fogo e munição no Brasil. Você vai estar aqui e votar no referendo, domingo que vem, ou pretende sair da cidade e justificar?</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>Vai estar na cidade e votar (PROSSIGA)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
+        <is>
+          <t>2190</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>2537</t>
         </is>
@@ -2287,35 +2452,45 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>10-2005</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>2537</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>p6</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Apenas para confirmar sua opinião:</t>
+          <t>p3</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>No próximo domingo haverá o referendo sobre a proibição de armas de fogo e munição no Brasil. Você vai estar aqui e votar no referendo, domingo que vem, ou pretende sair da cidade e justificar?</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>Vai sair da cidade e justificar (PULE PARA P.9)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>2537</t>
         </is>
@@ -2344,40 +2519,45 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>10-2005</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>2537</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>p9</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>(NÃO APLIQUE PARA ENTREVISTADOS DE 16 E 17 ANOS E ACIMA DE 70 ANOS) Se o voto não fosse obrigatório, você iria votar no referendo sobre a proibição do comércio de armas?</t>
+          <t>p3</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Não sabe</t>
+          <t>No próximo domingo haverá o referendo sobre a proibição de armas de fogo e munição no Brasil. Você vai estar aqui e votar no referendo, domingo que vem, ou pretende sair da cidade e justificar?</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>Não vai votar (PULE PARA P.9) (ANOTE MOTIVO)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>2537</t>
         </is>
@@ -2406,40 +2586,45 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>10-2005</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>2537</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>p9</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>(NÃO APLIQUE PARA ENTREVISTADOS DE 16 E 17 ANOS E ACIMA DE 70 ANOS) Se o voto não fosse obrigatório, você iria votar no referendo sobre a proibição do comércio de armas?</t>
+          <t>p4</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Sim, votaria</t>
+          <t>(PARA QUEM VAI ESTAR NA CIDADE E VOTAR - P.3 = 1) Na urna eletrônica haverá a seguinte pergunta: o comércio de armas de fogo e munição deve ser proibido no Brasil? Se o referendo fosse hoje você votaria sim ou não?</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1178</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>2537</t>
         </is>
@@ -2468,40 +2653,45 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>10-2005</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>2537</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>p9</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>(NÃO APLIQUE PARA ENTREVISTADOS DE 16 E 17 ANOS E ACIMA DE 70 ANOS) Se o voto não fosse obrigatório, você iria votar no referendo sobre a proibição do comércio de armas?</t>
+          <t>p4</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Não votaria</t>
+          <t>(PARA QUEM VAI ESTAR NA CIDADE E VOTAR - P.3 = 1) Na urna eletrônica haverá a seguinte pergunta: o comércio de armas de fogo e munição deve ser proibido no Brasil? Se o referendo fosse hoje você votaria sim ou não?</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>2537</t>
         </is>
@@ -2530,35 +2720,45 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>10-2005</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>2537</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>p9</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>(NÃO APLIQUE PARA ENTREVISTADOS DE 16 E 17 ANOS E ACIMA DE 70 ANOS) Se o voto não fosse obrigatório, você iria votar no referendo sobre a proibição do comércio de armas?</t>
+          <t>p4</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>(PARA QUEM VAI ESTAR NA CIDADE E VOTAR - P.3 = 1) Na urna eletrônica haverá a seguinte pergunta: o comércio de armas de fogo e munição deve ser proibido no Brasil? Se o referendo fosse hoje você votaria sim ou não?</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>2537</t>
         </is>
@@ -2587,40 +2787,45 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>10-2005</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>2537</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>p29</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Você ou alguém na sua casa possui arma de fogo?</t>
+          <t>p4</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>(PARA QUEM VAI ESTAR NA CIDADE E VOTAR - P.3 = 1) Na urna eletrônica haverá a seguinte pergunta: o comércio de armas de fogo e munição deve ser proibido no Brasil? Se o referendo fosse hoje você votaria sim ou não?</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2323</t>
+          <t>Em branco</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>2537</t>
         </is>
@@ -2649,40 +2854,45 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>10-2005</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>2537</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>p29</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Você ou alguém na sua casa possui arma de fogo?</t>
+          <t>p4</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Não sabe</t>
+          <t>(PARA QUEM VAI ESTAR NA CIDADE E VOTAR - P.3 = 1) Na urna eletrônica haverá a seguinte pergunta: o comércio de armas de fogo e munição deve ser proibido no Brasil? Se o referendo fosse hoje você votaria sim ou não?</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Nulo</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>2537</t>
         </is>
@@ -2711,40 +2921,40 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>10-2005</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>2537</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>p29</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Você ou alguém na sua casa possui arma de fogo?</t>
+          <t>p4</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Entrevistado possui arma</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>96</t>
+          <t>(PARA QUEM VAI ESTAR NA CIDADE E VOTAR - P.3 = 1) Na urna eletrônica haverá a seguinte pergunta: o comércio de armas de fogo e munição deve ser proibido no Brasil? Se o referendo fosse hoje você votaria sim ou não?</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>2537</t>
         </is>
@@ -2773,40 +2983,45 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>10-2005</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>2537</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>p29</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Você ou alguém na sua casa possui arma de fogo?</t>
+          <t>p5</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Alguém na casa possui arma</t>
+          <t>(PARA QUEM VOTARIA NO 'SIM' OU NO 'NÃO' OU DISSE QUE VAI ANULAR / VOTAR NULO NA P.4) Qual número você vai digitar na urna eletrônica para confirmar seu voto no referendo de domingo? (SE VOTARIA EM BRANCO OU ESTÁ INDECISO, NÃO APLIQUE A PERGUNTA)?</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>1-Não</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>2537</t>
         </is>
@@ -2835,40 +3050,45 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>10-2005</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>2537</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>p30</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>(PARA QUEM NÃO TEM ARMA - P.29 # 1) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência?</t>
+          <t>p5</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>(PARA QUEM VOTARIA NO 'SIM' OU NO 'NÃO' OU DISSE QUE VAI ANULAR / VOTAR NULO NA P.4) Qual número você vai digitar na urna eletrônica para confirmar seu voto no referendo de domingo? (SE VOTARIA EM BRANCO OU ESTÁ INDECISO, NÃO APLIQUE A PERGUNTA)?</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>2-Sim</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>2537</t>
         </is>
@@ -2897,40 +3117,45 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>10-2005</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>2537</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>p30</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>(PARA QUEM NÃO TEM ARMA - P.29 # 1) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência?</t>
+          <t>p5</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>(PARA QUEM VOTARIA NO 'SIM' OU NO 'NÃO' OU DISSE QUE VAI ANULAR / VOTAR NULO NA P.4) Qual número você vai digitar na urna eletrônica para confirmar seu voto no referendo de domingo? (SE VOTARIA EM BRANCO OU ESTÁ INDECISO, NÃO APLIQUE A PERGUNTA)?</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1829</t>
+          <t>Não sabe o número</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>2537</t>
         </is>
@@ -2959,40 +3184,45 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>10-2005</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>2537</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>p30</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>(PARA QUEM NÃO TEM ARMA - P.29 # 1) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência?</t>
+          <t>p5</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Não sabe</t>
+          <t>(PARA QUEM VOTARIA NO 'SIM' OU NO 'NÃO' OU DISSE QUE VAI ANULAR / VOTAR NULO NA P.4) Qual número você vai digitar na urna eletrônica para confirmar seu voto no referendo de domingo? (SE VOTARIA EM BRANCO OU ESTÁ INDECISO, NÃO APLIQUE A PERGUNTA)?</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>Não sabe como anular o voto</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>2537</t>
         </is>
@@ -3021,35 +3251,40 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>10-2005</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>2537</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>p30</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>(PARA QUEM NÃO TEM ARMA - P.29 # 1) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência?</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>96</t>
+          <t>p5</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>(PARA QUEM VOTARIA NO 'SIM' OU NO 'NÃO' OU DISSE QUE VAI ANULAR / VOTAR NULO NA P.4) Qual número você vai digitar na urna eletrônica para confirmar seu voto no referendo de domingo? (SE VOTARIA EM BRANCO OU ESTÁ INDECISO, NÃO APLIQUE A PERGUNTA)?</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>2537</t>
         </is>
@@ -3058,7 +3293,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>03372</t>
+          <t>02528</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3068,59 +3303,64 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DA PRESIDENTE DILMA APÓS DOIS ANOS DE GOVERNO</t>
+          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12-2012</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2588</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>p16a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
+          <t>p6</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
+          <t>Apenas para confirmar sua opinião:</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
           <t>Não sabe</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2588</t>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>03372</t>
+          <t>02528</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3130,59 +3370,64 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DA PRESIDENTE DILMA APÓS DOIS ANOS DE GOVERNO</t>
+          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12-2012</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2588</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>p16a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
+          <t>p6</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Possuir uma arma legalizada deveria ser um direito do cidadão para se defender</t>
+          <t>Apenas para confirmar sua opinião:</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>O comércio armas/munição deve continuar permitido como hoje</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2588</t>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>03372</t>
+          <t>02528</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3192,59 +3437,64 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DA PRESIDENTE DILMA APÓS DOIS ANOS DE GOVERNO</t>
+          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>12-2012</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2588</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>p16a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
+          <t>p6</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>A posse de armas deve continuar proibida, pois representa ameaça à vida de outras pessoas</t>
+          <t>Apenas para confirmar sua opinião:</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>O comércio de armas/munição deve ser proibido no Brasil?</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2588</t>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>03836</t>
+          <t>02528</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3254,59 +3504,64 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>INTENÇÃO DE VOTO PARA PRESIDENTE AVALIAÇÃO DA PRESIDENTE DILMA</t>
+          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>09-2014</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10054</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>p15a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
+          <t>p6</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Não sabe</t>
+          <t>Apenas para confirmar sua opinião:</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>Outras respostas</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>10054</t>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>03836</t>
+          <t>02528</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3316,59 +3571,59 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>INTENÇÃO DE VOTO PARA PRESIDENTE AVALIAÇÃO DA PRESIDENTE DILMA</t>
+          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>09-2014</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10054</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>p15a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
+          <t>p6</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Possuir uma arma legalizada deveria ser um direito do cidadã</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>3376</t>
+          <t>Apenas para confirmar sua opinião:</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>10054</t>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>03836</t>
+          <t>02528</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3378,59 +3633,64 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>INTENÇÃO DE VOTO PARA PRESIDENTE AVALIAÇÃO DA PRESIDENTE DILMA</t>
+          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>09-2014</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10054</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>p15a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
+          <t>p9</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>A posse de armas deve ser proibida, pois representa ameaça à</t>
+          <t>(NÃO APLIQUE PARA ENTREVISTADOS DE 16 E 17 ANOS E ACIMA DE 70 ANOS) Se o voto não fosse obrigatório, você iria votar no referendo sobre a proibição do comércio de armas?</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>6327</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>10054</t>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>03925</t>
+          <t>02528</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3440,59 +3700,64 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DA PRESIDENTE DILMA</t>
+          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>10-2013</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>p18a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
+          <t>p9</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Não sabe</t>
+          <t>(NÃO APLIQUE PARA ENTREVISTADOS DE 16 E 17 ANOS E ACIMA DE 70 ANOS) Se o voto não fosse obrigatório, você iria votar no referendo sobre a proibição do comércio de armas?</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>Sim, votaria</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>1178</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>03925</t>
+          <t>02528</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3502,59 +3767,64 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DA PRESIDENTE DILMA</t>
+          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10-2013</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>p18a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
+          <t>p9</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Não respondeu</t>
+          <t>(NÃO APLIQUE PARA ENTREVISTADOS DE 16 E 17 ANOS E ACIMA DE 70 ANOS) Se o voto não fosse obrigatório, você iria votar no referendo sobre a proibição do comércio de armas?</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>Não votaria</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>1074</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>03925</t>
+          <t>02528</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3564,59 +3834,59 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DA PRESIDENTE DILMA</t>
+          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10-2013</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>p18a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
+          <t>p9</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Possuir uma arma legalizada deveria ser um direito do cidadã</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>725</t>
+          <t>(NÃO APLIQUE PARA ENTREVISTADOS DE 16 E 17 ANOS E ACIMA DE 70 ANOS) Se o voto não fosse obrigatório, você iria votar no referendo sobre a proibição do comércio de armas?</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>03925</t>
+          <t>02528</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3626,59 +3896,64 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DA PRESIDENTE DILMA</t>
+          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10-2013</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>p18a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
+          <t>p29</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>A posse de armas deve ser proibida, pois representa ameaça à</t>
+          <t>Você ou alguém na sua casa possui arma de fogo?</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1726</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>2323</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>03926</t>
+          <t>02528</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3688,59 +3963,64 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DA PRESIDENTE DILMA</t>
+          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11-2013</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4557</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>p15a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
+          <t>p29</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
+          <t>Você ou alguém na sua casa possui arma de fogo?</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
           <t>Não sabe</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>4557</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>03926</t>
+          <t>02528</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3750,59 +4030,64 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DA PRESIDENTE DILMA</t>
+          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>11-2013</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4557</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>p15a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
+          <t>p29</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Possuir uma arma legalizada deveria ser um direito do cidadã</t>
+          <t>Você ou alguém na sua casa possui arma de fogo?</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1225</t>
+          <t>Entrevistado possui arma</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>4557</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>03926</t>
+          <t>02528</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3812,59 +4097,64 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DA PRESIDENTE DILMA</t>
+          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>11-2013</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4557</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>p15a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
+          <t>p29</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>A posse de armas deve ser proibida, pois representa ameaça à</t>
+          <t>Você ou alguém na sua casa possui arma de fogo?</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>3225</t>
+          <t>Alguém na casa possui arma</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>4557</t>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>04405</t>
+          <t>02528</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3874,59 +4164,64 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>INTENÇÃO DE VOTO PARA PRESIDENTE/AVALIAÇÃO DO PRESIDENTE TEMER - 1 ANO E 6 MESES</t>
+          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>11-2017</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2761</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>p28</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Com qual frase você concorda mais:</t>
+          <t>p30</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Não sabe</t>
+          <t>(PARA QUEM NÃO TEM ARMA - P.29 # 1) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência?</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2765</t>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>04405</t>
+          <t>02528</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3936,59 +4231,64 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>INTENÇÃO DE VOTO PARA PRESIDENTE/AVALIAÇÃO DO PRESIDENTE TEMER - 1 ANO E 6 MESES</t>
+          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>11-2017</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2761</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>p28</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Com qual frase você concorda mais:</t>
+          <t>p30</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Possuir uma arma legalizada deveria ser um direito do cidadão para se defender</t>
+          <t>(PARA QUEM NÃO TEM ARMA - P.29 # 1) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência?</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2765</t>
+          <t>1829</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>04405</t>
+          <t>02528</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3998,59 +4298,64 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>INTENÇÃO DE VOTO PARA PRESIDENTE/AVALIAÇÃO DO PRESIDENTE TEMER - 1 ANO E 6 MESES</t>
+          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>11-2017</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2761</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>p28</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Com qual frase você concorda mais:</t>
+          <t>p30</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>A posse de armas deve ser proibida, pois representa ameaça à vida de outras pessoas</t>
+          <t>(PARA QUEM NÃO TEM ARMA - P.29 # 1) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência?</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1530</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2765</t>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>04422</t>
+          <t>02528</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4060,59 +4365,59 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>INTENÇÃO DE VOTO PARA PRESIDENTE/AVALIAÇÃO DO PRESIDENTE TEMER - 1 ANO E 1 MÊS</t>
+          <t>AVALIAÇÃO DO PRESIDENTE LULA - REFERENDO ARMAS DE FOGO - INTENÇÃO DE VOTO PRESIDENTE 2006 - CORRUPÇÃO NO GOVERNO LULA - LULA E O PT - AVALIAÇÃO DOS SENADORES E DEPUTADOS FEDERAIS – CONGRESSO - PROGRAMAS SOCIAIS DO GOVERNO LULA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>06-2017</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2771</t>
+          <t>10-2005</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>p20a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>(...) qual você concorda mais: Possuir uma arma legalizada deveria ser um direito do cidadão para se defender OU A posse de armas deve ser proibida, pois representa ameaça à vida de outras pessoas?</t>
+          <t>p30</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Não sabe</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>60</t>
+          <t>(PARA QUEM NÃO TEM ARMA - P.29 # 1) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência?</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2771</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>04422</t>
+          <t>03372</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4122,59 +4427,64 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>INTENÇÃO DE VOTO PARA PRESIDENTE/AVALIAÇÃO DO PRESIDENTE TEMER - 1 ANO E 1 MÊS</t>
+          <t>AVALIAÇÃO DA PRESIDENTE DILMA APÓS DOIS ANOS DE GOVERNO</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>06-2017</t>
+          <t>12-2012</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2771</t>
+          <t>12-2012</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>2588</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>p20a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>(...) qual você concorda mais: Possuir uma arma legalizada deveria ser um direito do cidadão para se defender OU A posse de armas deve ser proibida, pois representa ameaça à vida de outras pessoas?</t>
+          <t>p16a</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Possuir uma arma legalizada deveria ser um direito do cidadão para se defender</t>
+          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>1219</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2771</t>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2588</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>04422</t>
+          <t>03372</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4184,59 +4494,64 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>INTENÇÃO DE VOTO PARA PRESIDENTE/AVALIAÇÃO DO PRESIDENTE TEMER - 1 ANO E 1 MÊS</t>
+          <t>AVALIAÇÃO DA PRESIDENTE DILMA APÓS DOIS ANOS DE GOVERNO</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>06-2017</t>
+          <t>12-2012</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2771</t>
+          <t>12-2012</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>2588</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>p20a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>(...) qual você concorda mais: Possuir uma arma legalizada deveria ser um direito do cidadão para se defender OU A posse de armas deve ser proibida, pois representa ameaça à vida de outras pessoas?</t>
+          <t>p16a</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>A posse de armas deve ser proibida, pois representa ameaça à vida de outras pessoas</t>
+          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>1492</t>
+          <t>Possuir uma arma legalizada deveria ser um direito do cidadão para se defender</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2771</t>
+          <t>782</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2588</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>04572</t>
+          <t>03372</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4246,59 +4561,64 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>INTENÇÃO DE VOTO PARA PRESIDENTE</t>
+          <t>AVALIAÇÃO DA PRESIDENTE DILMA APÓS DOIS ANOS DE GOVERNO</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>08-2018</t>
+          <t>12-2012</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>8433</t>
+          <t>12-2012</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>2588</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>p23</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Com qual frase você concorda mais: (...) ?</t>
+          <t>p16a</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Não sabe</t>
+          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>A posse de armas deve continuar proibida, pois representa ameaça à vida de outras pessoas</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>8433</t>
+          <t>1750</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>2588</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>04572</t>
+          <t>03836</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4308,59 +4628,64 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>INTENÇÃO DE VOTO PARA PRESIDENTE</t>
+          <t>INTENÇÃO DE VOTO PARA PRESIDENTE AVALIAÇÃO DA PRESIDENTE DILMA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>08-2018</t>
+          <t>09-2014</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>8433</t>
+          <t>09-2014</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>10054</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>p23</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Com qual frase você concorda mais: (...) ?</t>
+          <t>p15a</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Possuir uma arma legalizada deveria ser um direito do cidadão para se defender</t>
+          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>3076</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>8433</t>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>10054</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>04572</t>
+          <t>03836</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4370,59 +4695,64 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>INTENÇÃO DE VOTO PARA PRESIDENTE</t>
+          <t>INTENÇÃO DE VOTO PARA PRESIDENTE AVALIAÇÃO DA PRESIDENTE DILMA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>08-2018</t>
+          <t>09-2014</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>8433</t>
+          <t>09-2014</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>10054</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>p23</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Com qual frase você concorda mais: (...) ?</t>
+          <t>p15a</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>A posse de armas deve ser proibida, pois representa ameaça à vida de outras pessoas</t>
+          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>5136</t>
+          <t>Possuir uma arma legalizada deveria ser um direito do cidadã</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>8433</t>
+          <t>3376</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>10054</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>04696</t>
+          <t>03836</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4432,59 +4762,64 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>INTENÇÃO DE VOTO PARA PRESIDENTE - 2º TURNO</t>
+          <t>INTENÇÃO DE VOTO PARA PRESIDENTE AVALIAÇÃO DA PRESIDENTE DILMA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10-2018</t>
+          <t>09-2014</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>9173</t>
+          <t>09-2014</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>População adulta do Brasil</t>
+          <t>10054</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>p23a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
+          <t>p15a</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
           <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Não sabe</t>
-        </is>
-      </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>A posse de armas deve ser proibida, pois representa ameaça à</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>9173</t>
+          <t>6327</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>10054</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>04696</t>
+          <t>03925</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4494,59 +4829,64 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>INTENÇÃO DE VOTO PARA PRESIDENTE - 2º TURNO</t>
+          <t>AVALIAÇÃO DA PRESIDENTE DILMA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>10-2018</t>
+          <t>10-2013</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>9173</t>
+          <t>10-2013</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>População adulta do Brasil</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>p23a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
+          <t>p18a</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
           <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Possuir uma arma legalizada deveria ser um direito do cidadão para se defender</t>
-        </is>
-      </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>9173</t>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>2517</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>04696</t>
+          <t>03925</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4556,59 +4896,64 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>INTENÇÃO DE VOTO PARA PRESIDENTE - 2º TURNO</t>
+          <t>AVALIAÇÃO DA PRESIDENTE DILMA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>10-2018</t>
+          <t>10-2013</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>9173</t>
+          <t>10-2013</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>População adulta do Brasil</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>p23a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
+          <t>p18a</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
           <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>A posse de armas deve ser proibida, pois representa ameaça à vida de outras pessoas?</t>
-        </is>
-      </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>5125</t>
+          <t>Não respondeu</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>9173</t>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>2517</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>04714</t>
+          <t>03925</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4618,59 +4963,64 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Expectativa do governo Bolsonaro</t>
+          <t>AVALIAÇÃO DA PRESIDENTE DILMA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>12-2018</t>
+          <t>10-2013</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2077</t>
+          <t>10-2013</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>População acima de 16 anos</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>p40</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>(Caso o entrevistado não tenha arma) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
+          <t>p18a</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>Possuir uma arma legalizada deveria ser um direito do cidadã</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2077</t>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>2517</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>04714</t>
+          <t>03925</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4680,59 +5030,64 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Expectativa do governo Bolsonaro</t>
+          <t>AVALIAÇÃO DA PRESIDENTE DILMA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>12-2018</t>
+          <t>10-2013</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2077</t>
+          <t>10-2013</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>População acima de 16 anos</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>p40</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>(Caso o entrevistado não tenha arma) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
+          <t>p18a</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>A posse de armas deve ser proibida, pois representa ameaça à</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2077</t>
+          <t>1726</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>2517</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>04714</t>
+          <t>03926</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4742,59 +5097,64 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Expectativa do governo Bolsonaro</t>
+          <t>AVALIAÇÃO DA PRESIDENTE DILMA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>12-2018</t>
+          <t>11-2013</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2077</t>
+          <t>11-2013</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>População acima de 16 anos</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>p40</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>(Caso o entrevistado não tenha arma) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
+          <t>p15a</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
+          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
           <t>Não sabe</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2077</t>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>4557</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>04715</t>
+          <t>03926</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4804,59 +5164,64 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
+          <t>AVALIAÇÃO DA PRESIDENTE DILMA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>04-2019</t>
+          <t>11-2013</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>11-2013</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>População acima de 16 anos</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>p34</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Com qual frase você concorda mais:</t>
+          <t>p15a</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Não sabe</t>
+          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>Possuir uma arma legalizada deveria ser um direito do cidadã</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>1225</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>4557</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>04715</t>
+          <t>03926</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4866,59 +5231,64 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
+          <t>AVALIAÇÃO DA PRESIDENTE DILMA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>04-2019</t>
+          <t>11-2013</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>11-2013</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>População acima de 16 anos</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>p34</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Com qual frase você concorda mais:</t>
+          <t>p15a</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>A posse de armas deve ser proibida, pois representa ameaça à vida de outras pessoas?</t>
+          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>1333</t>
+          <t>A posse de armas deve ser proibida, pois representa ameaça à</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>3225</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>4557</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>04715</t>
+          <t>04405</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4928,59 +5298,64 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
+          <t>INTENÇÃO DE VOTO PARA PRESIDENTE/AVALIAÇÃO DO PRESIDENTE TEMER - 1 ANO E 6 MESES</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>04-2019</t>
+          <t>11-2017</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>11-2017</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>População acima de 16 anos</t>
+          <t>2761</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>p34</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
+          <t>p28</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
           <t>Com qual frase você concorda mais:</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Possuir uma arma legalizada deveria ser um direito do cidadão para se defender ou</t>
-        </is>
-      </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>2765</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>04715</t>
+          <t>04405</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4990,59 +5365,64 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
+          <t>INTENÇÃO DE VOTO PARA PRESIDENTE/AVALIAÇÃO DO PRESIDENTE TEMER - 1 ANO E 6 MESES</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>04-2019</t>
+          <t>11-2017</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>11-2017</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>População acima de 16 anos</t>
+          <t>2761</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>p42c</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Agora eu vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas, totalmente ou em parte: - A sociedade brasileira seria mais segura se as pessoas andassem armadas para se proteger da violência</t>
+          <t>p28</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Não sabe</t>
+          <t>Com qual frase você concorda mais:</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>Possuir uma arma legalizada deveria ser um direito do cidadão para se defender</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2765</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>04715</t>
+          <t>04405</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5052,59 +5432,64 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
+          <t>INTENÇÃO DE VOTO PARA PRESIDENTE/AVALIAÇÃO DO PRESIDENTE TEMER - 1 ANO E 6 MESES</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>04-2019</t>
+          <t>11-2017</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>11-2017</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>População acima de 16 anos</t>
+          <t>2761</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>p42c</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Agora eu vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas, totalmente ou em parte: - A sociedade brasileira seria mais segura se as pessoas andassem armadas para se proteger da violência</t>
+          <t>p28</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Concorda totalmente</t>
+          <t>Com qual frase você concorda mais:</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>A posse de armas deve ser proibida, pois representa ameaça à vida de outras pessoas</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>1530</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>2765</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>04715</t>
+          <t>04422</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5114,59 +5499,64 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
+          <t>INTENÇÃO DE VOTO PARA PRESIDENTE/AVALIAÇÃO DO PRESIDENTE TEMER - 1 ANO E 1 MÊS</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>04-2019</t>
+          <t>06-2017</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>06-2017</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>População acima de 16 anos</t>
+          <t>2771</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>p42c</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Agora eu vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas, totalmente ou em parte: - A sociedade brasileira seria mais segura se as pessoas andassem armadas para se proteger da violência</t>
+          <t>p20a</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Concorda em parte</t>
+          <t>(...) qual você concorda mais: Possuir uma arma legalizada deveria ser um direito do cidadão para se defender OU A posse de armas deve ser proibida, pois representa ameaça à vida de outras pessoas?</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2771</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>04715</t>
+          <t>04422</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5176,59 +5566,64 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
+          <t>INTENÇÃO DE VOTO PARA PRESIDENTE/AVALIAÇÃO DO PRESIDENTE TEMER - 1 ANO E 1 MÊS</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>04-2019</t>
+          <t>06-2017</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>06-2017</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>População acima de 16 anos</t>
+          <t>2771</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>p42c</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Agora eu vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas, totalmente ou em parte: - A sociedade brasileira seria mais segura se as pessoas andassem armadas para se proteger da violência</t>
+          <t>p20a</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Não concorda nem discorda</t>
+          <t>(...) qual você concorda mais: Possuir uma arma legalizada deveria ser um direito do cidadão para se defender OU A posse de armas deve ser proibida, pois representa ameaça à vida de outras pessoas?</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>Possuir uma arma legalizada deveria ser um direito do cidadão para se defender</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>1219</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>2771</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>04715</t>
+          <t>04422</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5238,59 +5633,64 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
+          <t>INTENÇÃO DE VOTO PARA PRESIDENTE/AVALIAÇÃO DO PRESIDENTE TEMER - 1 ANO E 1 MÊS</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>04-2019</t>
+          <t>06-2017</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>06-2017</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>População acima de 16 anos</t>
+          <t>2771</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>p42c</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Agora eu vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas, totalmente ou em parte: - A sociedade brasileira seria mais segura se as pessoas andassem armadas para se proteger da violência</t>
+          <t>p20a</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Discorda em parte</t>
+          <t>(...) qual você concorda mais: Possuir uma arma legalizada deveria ser um direito do cidadão para se defender OU A posse de armas deve ser proibida, pois representa ameaça à vida de outras pessoas?</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>A posse de armas deve ser proibida, pois representa ameaça à vida de outras pessoas</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>1492</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>2771</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>04715</t>
+          <t>04572</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5300,59 +5700,64 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
+          <t>INTENÇÃO DE VOTO PARA PRESIDENTE</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>04-2019</t>
+          <t>08-2018</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>08-2018</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>População acima de 16 anos</t>
+          <t>8433</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>p42c</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Agora eu vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas, totalmente ou em parte: - A sociedade brasileira seria mais segura se as pessoas andassem armadas para se proteger da violência</t>
+          <t>p23</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Discorda Totalmente</t>
+          <t>Com qual frase você concorda mais: (...) ?</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>8433</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>04715</t>
+          <t>04572</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5362,59 +5767,64 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
+          <t>INTENÇÃO DE VOTO PARA PRESIDENTE</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>04-2019</t>
+          <t>08-2018</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>08-2018</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>População acima de 16 anos</t>
+          <t>8433</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>p55</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Lembrando que suas respostas são sigilosas e que é importante que você seja sincero, você ou alguém na sua casa possui arma de fogo ?</t>
+          <t>p23</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Não sabe</t>
+          <t>Com qual frase você concorda mais: (...) ?</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>Possuir uma arma legalizada deveria ser um direito do cidadão para se defender</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>3076</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>8433</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>04715</t>
+          <t>04572</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5424,59 +5834,64 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
+          <t>INTENÇÃO DE VOTO PARA PRESIDENTE</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>04-2019</t>
+          <t>08-2018</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>08-2018</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>População acima de 16 anos</t>
+          <t>8433</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>p55</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Lembrando que suas respostas são sigilosas e que é importante que você seja sincero, você ou alguém na sua casa possui arma de fogo ?</t>
+          <t>p23</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Entrevistado</t>
+          <t>Com qual frase você concorda mais: (...) ?</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>A posse de armas deve ser proibida, pois representa ameaça à vida de outras pessoas</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>8433</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>04715</t>
+          <t>04696</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5486,59 +5901,64 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
+          <t>INTENÇÃO DE VOTO PARA PRESIDENTE - 2º TURNO</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>04-2019</t>
+          <t>10-2018</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>10-2018</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>População acima de 16 anos</t>
+          <t>9173</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>População adulta do Brasil</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>p55</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Lembrando que suas respostas são sigilosas e que é importante que você seja sincero, você ou alguém na sua casa possui arma de fogo ?</t>
+          <t>p23a</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Alguém da casa</t>
+          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>9173</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>04715</t>
+          <t>04696</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5548,59 +5968,64 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
+          <t>INTENÇÃO DE VOTO PARA PRESIDENTE - 2º TURNO</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>04-2019</t>
+          <t>10-2018</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>10-2018</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>População acima de 16 anos</t>
+          <t>9173</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>População adulta do Brasil</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>p55</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Lembrando que suas respostas são sigilosas e que é importante que você seja sincero, você ou alguém na sua casa possui arma de fogo ?</t>
+          <t>p23a</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Não possui</t>
+          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>Possuir uma arma legalizada deveria ser um direito do cidadão para se defender</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>3714</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>9173</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>04715</t>
+          <t>04696</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5610,59 +6035,64 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
+          <t>INTENÇÃO DE VOTO PARA PRESIDENTE - 2º TURNO</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>04-2019</t>
+          <t>10-2018</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>10-2018</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>População acima de 16 anos</t>
+          <t>9173</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>População adulta do Brasil</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>p56</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
+          <t>p23a</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Agora eu vou ler algumas frases e gostaria de saber com qual você concorda mais:</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>A posse de armas deve ser proibida, pois representa ameaça à vida de outras pessoas?</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>5125</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>9173</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>04715</t>
+          <t>04714</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5672,59 +6102,64 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
+          <t>Expectativa do governo Bolsonaro</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>04-2019</t>
+          <t>12-2018</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>12-2018</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>2077</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>p56</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
+          <t>p40</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>(Caso o entrevistado não tenha arma) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>1506</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>2077</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>04715</t>
+          <t>04714</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5734,59 +6169,64 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
+          <t>Expectativa do governo Bolsonaro</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>04-2019</t>
+          <t>12-2018</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>12-2018</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>2077</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>p56</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
+          <t>p40</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Não sabe</t>
+          <t>(Caso o entrevistado não tenha arma) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>1278</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>2077</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>04715</t>
+          <t>04714</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5796,52 +6236,57 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
+          <t>Expectativa do governo Bolsonaro</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>04-2019</t>
+          <t>12-2018</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>12-2018</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>2077</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>p57</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Com a flexibilização das regras para comprar armas, você pretende comprar uma arma de fogo para se defender?</t>
+          <t>p40</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>(Caso o entrevistado não tenha arma) E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>2077</t>
         </is>
       </c>
     </row>
@@ -5868,40 +6313,45 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
+          <t>04-2019</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
           <t>2086</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>p57</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Com a flexibilização das regras para comprar armas, você pretende comprar uma arma de fogo para se defender?</t>
+          <t>p34</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Com qual frase você concorda mais:</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>1666</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>2086</t>
         </is>
@@ -5930,40 +6380,45 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
+          <t>04-2019</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
           <t>2086</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>p57</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Com a flexibilização das regras para comprar armas, você pretende comprar uma arma de fogo para se defender?</t>
+          <t>p34</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Não sabe</t>
+          <t>Com qual frase você concorda mais:</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>A posse de armas deve ser proibida, pois representa ameaça à vida de outras pessoas?</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
+        <is>
+          <t>1333</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>2086</t>
         </is>
@@ -5972,7 +6427,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>04716</t>
+          <t>04715</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5982,50 +6437,55 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 6 MESES</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>06-2019</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
+          <t>04-2019</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
           <t>2086</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>p32</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
+          <t>p34</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
           <t>Com qual frase você concorda mais:</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Não sabe</t>
-        </is>
-      </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>Possuir uma arma legalizada deveria ser um direito do cidadão para se defender ou</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>2086</t>
         </is>
@@ -6034,7 +6494,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>04716</t>
+          <t>04715</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6044,50 +6504,55 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 6 MESES</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>06-2019</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
+          <t>04-2019</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
           <t>2086</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>p32</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Com qual frase você concorda mais:</t>
+          <t>p42c</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>A posse de armas deve ser proibida, pois representa ameaça à vida de outras pessoas?</t>
+          <t>Agora eu vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas, totalmente ou em parte: - A sociedade brasileira seria mais segura se as pessoas andassem armadas para se proteger da violência</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>1385</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>2086</t>
         </is>
@@ -6096,7 +6561,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>04716</t>
+          <t>04715</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6106,50 +6571,55 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 6 MESES</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>06-2019</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
+          <t>04-2019</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
           <t>2086</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>p32</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Com qual frase você concorda mais:</t>
+          <t>p42c</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Possuir uma arma legalizada deveria ser um direito do cidadão para se defender ou</t>
+          <t>Agora eu vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas, totalmente ou em parte: - A sociedade brasileira seria mais segura se as pessoas andassem armadas para se proteger da violência</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>Concorda totalmente</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>2086</t>
         </is>
@@ -6158,7 +6628,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>04716</t>
+          <t>04715</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6168,50 +6638,55 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 6 MESES</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>06-2019</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
+          <t>04-2019</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
           <t>2086</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>p33</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>E você é a favor ou contra o projeto do presidente Jair Bolsonaro de facilitar que mais pessoas possam andar armadas?</t>
+          <t>p42c</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Não sabe</t>
+          <t>Agora eu vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas, totalmente ou em parte: - A sociedade brasileira seria mais segura se as pessoas andassem armadas para se proteger da violência</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>Concorda em parte</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>2086</t>
         </is>
@@ -6220,7 +6695,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>04716</t>
+          <t>04715</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6230,50 +6705,55 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 6 MESES</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>06-2019</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
+          <t>04-2019</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
           <t>2086</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>p33</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>E você é a favor ou contra o projeto do presidente Jair Bolsonaro de facilitar que mais pessoas possam andar armadas?</t>
+          <t>p42c</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>A favor</t>
+          <t>Agora eu vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas, totalmente ou em parte: - A sociedade brasileira seria mais segura se as pessoas andassem armadas para se proteger da violência</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>Não concorda nem discorda</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>2086</t>
         </is>
@@ -6282,7 +6762,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>04716</t>
+          <t>04715</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6292,50 +6772,55 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 6 MESES</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>06-2019</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
+          <t>04-2019</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
           <t>2086</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>p33</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>E você é a favor ou contra o projeto do presidente Jair Bolsonaro de facilitar que mais pessoas possam andar armadas?</t>
+          <t>p42c</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Contra</t>
+          <t>Agora eu vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas, totalmente ou em parte: - A sociedade brasileira seria mais segura se as pessoas andassem armadas para se proteger da violência</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>1452</t>
+          <t>Discorda em parte</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>2086</t>
         </is>
@@ -6344,7 +6829,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>04716</t>
+          <t>04715</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6354,50 +6839,55 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 6 MESES</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>06-2019</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
+          <t>04-2019</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
           <t>2086</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>p33</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>E você é a favor ou contra o projeto do presidente Jair Bolsonaro de facilitar que mais pessoas possam andar armadas?</t>
+          <t>p42c</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Indiferente</t>
+          <t>Agora eu vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas, totalmente ou em parte: - A sociedade brasileira seria mais segura se as pessoas andassem armadas para se proteger da violência</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>Discorda Totalmente</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>2086</t>
         </is>
@@ -6406,751 +6896,811 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>04745</t>
+          <t>04715</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>IPEC</t>
+          <t>Data Folha</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>02-2021</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>p1b</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>O(A) sr(a) diria que é a favor ou contra a flexibilização das armas de fogo, ou seja, facilitar os critérios para compra e uso de armas?</t>
+          <t>p55</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>A favor</t>
+          <t>Lembrando que suas respostas são sigilosas e que é importante que você seja sincero, você ou alguém na sua casa possui arma de fogo ?</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>2086</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>04745</t>
+          <t>04715</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>IPEC</t>
+          <t>Data Folha</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>02-2021</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>p1b</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>O(A) sr(a) diria que é a favor ou contra a flexibilização das armas de fogo, ou seja, facilitar os critérios para compra e uso de armas?</t>
+          <t>p55</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Contra</t>
+          <t>Lembrando que suas respostas são sigilosas e que é importante que você seja sincero, você ou alguém na sua casa possui arma de fogo ?</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>Entrevistado</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>2086</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>04745</t>
+          <t>04715</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>IPEC</t>
+          <t>Data Folha</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>02-2021</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>p1b</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>O(A) sr(a) diria que é a favor ou contra a flexibilização das armas de fogo, ou seja, facilitar os critérios para compra e uso de armas?</t>
+          <t>p55</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Não sabe/ Não respondeu</t>
+          <t>Lembrando que suas respostas são sigilosas e que é importante que você seja sincero, você ou alguém na sua casa possui arma de fogo ?</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>Alguém da casa</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>2086</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>04745</t>
+          <t>04715</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>IPEC</t>
+          <t>Data Folha</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>02-2021</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>p2b01</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Dessas mudanças, gostaria de saber se o(a) sr(a) é a favor ou contra cada uma delas: Autorização para que o cidadão comum circule com 2 armas ao mesmo tempo</t>
+          <t>p55</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>A favor</t>
+          <t>Lembrando que suas respostas são sigilosas e que é importante que você seja sincero, você ou alguém na sua casa possui arma de fogo ?</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>Não possui</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>2086</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>04745</t>
+          <t>04715</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>IPEC</t>
+          <t>Data Folha</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>02-2021</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>p2b01</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Dessas mudanças, gostaria de saber se o(a) sr(a) é a favor ou contra cada uma delas: Autorização para que o cidadão comum circule com 2 armas ao mesmo tempo</t>
+          <t>p56</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Contra</t>
+          <t>E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>2086</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>04745</t>
+          <t>04715</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>IPEC</t>
+          <t>Data Folha</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>02-2021</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>p2b01</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Dessas mudanças, gostaria de saber se o(a) sr(a) é a favor ou contra cada uma delas: Autorização para que o cidadão comum circule com 2 armas ao mesmo tempo</t>
+          <t>p56</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Não sabe/ Não respondeu</t>
+          <t>E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1506</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>2086</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>04745</t>
+          <t>04715</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>IPEC</t>
+          <t>Data Folha</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>02-2021</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>p2b02</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Dessas mudanças, gostaria de saber se o(a) sr(a) é a favor ou contra cada uma delas: Aumento da quantidade de armas permitidas para defesa pessoal, passando de 4 para 6 armas</t>
+          <t>p56</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>A favor</t>
+          <t>E você alguma vez já pensou em comprar uma arma de fogo para se defender da violência ?</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>2086</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>04745</t>
+          <t>04715</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>IPEC</t>
+          <t>Data Folha</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>02-2021</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>p2b02</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Dessas mudanças, gostaria de saber se o(a) sr(a) é a favor ou contra cada uma delas: Aumento da quantidade de armas permitidas para defesa pessoal, passando de 4 para 6 armas</t>
+          <t>p57</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Contra</t>
+          <t>Com a flexibilização das regras para comprar armas, você pretende comprar uma arma de fogo para se defender?</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>1617</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>2086</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>04745</t>
+          <t>04715</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>IPEC</t>
+          <t>Data Folha</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>02-2021</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>p2b02</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Dessas mudanças, gostaria de saber se o(a) sr(a) é a favor ou contra cada uma delas: Aumento da quantidade de armas permitidas para defesa pessoal, passando de 4 para 6 armas</t>
+          <t>p57</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Não sabe/ Não respondeu</t>
+          <t>Com a flexibilização das regras para comprar armas, você pretende comprar uma arma de fogo para se defender?</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1666</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>2086</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>04745</t>
+          <t>04715</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>IPEC</t>
+          <t>Data Folha</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 100 DIAS</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>02-2021</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>04-2019</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>p2b03</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Dessas mudanças, gostaria de saber se o(a) sr(a) é a favor ou contra cada uma delas: Compra de até 60 armas para atiradores, de até 30 armas para caçadores e de até 10 armas para colecionadores sem necessidade de autorização do Exercito</t>
+          <t>p57</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>A favor</t>
+          <t>Com a flexibilização das regras para comprar armas, você pretende comprar uma arma de fogo para se defender?</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>2086</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>04745</t>
+          <t>04716</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>IPEC</t>
+          <t>Data Folha</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 6 MESES</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>02-2021</t>
+          <t>06-2019</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>06-2019</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>p2b03</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Dessas mudanças, gostaria de saber se o(a) sr(a) é a favor ou contra cada uma delas: Compra de até 60 armas para atiradores, de até 30 armas para caçadores e de até 10 armas para colecionadores sem necessidade de autorização do Exercito</t>
+          <t>p32</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Contra</t>
+          <t>Com qual frase você concorda mais:</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>1770</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>2086</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>04745</t>
+          <t>04716</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>IPEC</t>
+          <t>Data Folha</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 6 MESES</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>02-2021</t>
+          <t>06-2019</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>06-2019</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
           <t>População acima de 16 anos</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>p2b03</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Dessas mudanças, gostaria de saber se o(a) sr(a) é a favor ou contra cada uma delas: Compra de até 60 armas para atiradores, de até 30 armas para caçadores e de até 10 armas para colecionadores sem necessidade de autorização do Exercito</t>
+          <t>p32</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Não sabe/ Não respondeu</t>
+          <t>Com qual frase você concorda mais:</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>A posse de armas deve ser proibida, pois representa ameaça à vida de outras pessoas?</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1385</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>2086</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>04843</t>
+          <t>04716</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -7160,59 +7710,64 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>PERFIL IDEOLÓGICO</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 6 MESES</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>06-2023</t>
+          <t>06-2019</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>06-2019</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Eleitores de 16 anos ou mais</t>
+          <t>2086</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>População acima de 16 anos</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>p901a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>P.901 Agora vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas. - Possuir arma legalizada deveria ser um direito do cidadão para se defender</t>
+          <t>p32</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Não sabe</t>
+          <t>Com qual frase você concorda mais:</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>Possuir uma arma legalizada deveria ser um direito do cidadão para se defender ou</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>2086</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>04843</t>
+          <t>04716</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -7222,59 +7777,64 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>PERFIL IDEOLÓGICO</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 6 MESES</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>06-2023</t>
+          <t>06-2019</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>06-2019</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Eleitores de 16 anos ou mais</t>
+          <t>2086</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>População acima de 16 anos</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>p901a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>P.901 Agora vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas. - Possuir arma legalizada deveria ser um direito do cidadão para se defender</t>
+          <t>p33</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Concorda totalmente</t>
+          <t>E você é a favor ou contra o projeto do presidente Jair Bolsonaro de facilitar que mais pessoas possam andar armadas?</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>Não sabe</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>2086</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>04843</t>
+          <t>04716</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -7284,59 +7844,64 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>PERFIL IDEOLÓGICO</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 6 MESES</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>06-2023</t>
+          <t>06-2019</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>06-2019</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Eleitores de 16 anos ou mais</t>
+          <t>2086</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>População acima de 16 anos</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>p901a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>P.901 Agora vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas. - Possuir arma legalizada deveria ser um direito do cidadão para se defender</t>
+          <t>p33</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Concorda em parte</t>
+          <t>E você é a favor ou contra o projeto do presidente Jair Bolsonaro de facilitar que mais pessoas possam andar armadas?</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>A favor</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>2086</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>04843</t>
+          <t>04716</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -7346,59 +7911,64 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>PERFIL IDEOLÓGICO</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 6 MESES</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>06-2023</t>
+          <t>06-2019</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>06-2019</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Eleitores de 16 anos ou mais</t>
+          <t>2086</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>População acima de 16 anos</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>p901a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>P.901 Agora vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas. - Possuir arma legalizada deveria ser um direito do cidadão para se defender</t>
+          <t>p33</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Discorda em parte</t>
+          <t>E você é a favor ou contra o projeto do presidente Jair Bolsonaro de facilitar que mais pessoas possam andar armadas?</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>Contra</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>1452</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>2086</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>04843</t>
+          <t>04716</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -7408,112 +7978,1261 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>PERFIL IDEOLÓGICO</t>
+          <t>AVALIAÇÃO DO PRESIDENTE JAIR BOLSONARO 6 MESES</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>06-2023</t>
+          <t>06-2019</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>06-2019</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Eleitores de 16 anos ou mais</t>
+          <t>2086</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>População acima de 16 anos</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>p901a</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>P.901 Agora vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas. - Possuir arma legalizada deveria ser um direito do cidadão para se defender</t>
+          <t>p33</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Nem concorda, nem discorda</t>
+          <t>E você é a favor ou contra o projeto do presidente Jair Bolsonaro de facilitar que mais pessoas possam andar armadas?</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>Indiferente</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>2086</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
+          <t>04745</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>IPEC</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>População acima de 16 anos</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>p1b</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>O(A) sr(a) diria que é a favor ou contra a flexibilização das armas de fogo, ou seja, facilitar os critérios para compra e uso de armas?</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>A favor</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>04745</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>IPEC</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>População acima de 16 anos</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>p1b</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>O(A) sr(a) diria que é a favor ou contra a flexibilização das armas de fogo, ou seja, facilitar os critérios para compra e uso de armas?</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>1443</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>04745</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>IPEC</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>População acima de 16 anos</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>p1b</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>O(A) sr(a) diria que é a favor ou contra a flexibilização das armas de fogo, ou seja, facilitar os critérios para compra e uso de armas?</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Não sabe/ Não respondeu</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>04745</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>IPEC</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>População acima de 16 anos</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>p2b01</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Dessas mudanças, gostaria de saber se o(a) sr(a) é a favor ou contra cada uma delas: Autorização para que o cidadão comum circule com 2 armas ao mesmo tempo</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>A favor</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>04745</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>IPEC</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>População acima de 16 anos</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>p2b01</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Dessas mudanças, gostaria de saber se o(a) sr(a) é a favor ou contra cada uma delas: Autorização para que o cidadão comum circule com 2 armas ao mesmo tempo</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>1722</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>04745</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>IPEC</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>População acima de 16 anos</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>p2b01</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Dessas mudanças, gostaria de saber se o(a) sr(a) é a favor ou contra cada uma delas: Autorização para que o cidadão comum circule com 2 armas ao mesmo tempo</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Não sabe/ Não respondeu</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>04745</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>IPEC</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>População acima de 16 anos</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>p2b02</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Dessas mudanças, gostaria de saber se o(a) sr(a) é a favor ou contra cada uma delas: Aumento da quantidade de armas permitidas para defesa pessoal, passando de 4 para 6 armas</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>A favor</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>04745</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>IPEC</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>População acima de 16 anos</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>p2b02</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Dessas mudanças, gostaria de saber se o(a) sr(a) é a favor ou contra cada uma delas: Aumento da quantidade de armas permitidas para defesa pessoal, passando de 4 para 6 armas</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>1617</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>04745</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>IPEC</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>População acima de 16 anos</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>p2b02</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Dessas mudanças, gostaria de saber se o(a) sr(a) é a favor ou contra cada uma delas: Aumento da quantidade de armas permitidas para defesa pessoal, passando de 4 para 6 armas</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Não sabe/ Não respondeu</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>04745</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>IPEC</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>População acima de 16 anos</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>p2b03</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Dessas mudanças, gostaria de saber se o(a) sr(a) é a favor ou contra cada uma delas: Compra de até 60 armas para atiradores, de até 30 armas para caçadores e de até 10 armas para colecionadores sem necessidade de autorização do Exercito</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>A favor</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>04745</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>IPEC</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>População acima de 16 anos</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>p2b03</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Dessas mudanças, gostaria de saber se o(a) sr(a) é a favor ou contra cada uma delas: Compra de até 60 armas para atiradores, de até 30 armas para caçadores e de até 10 armas para colecionadores sem necessidade de autorização do Exercito</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Contra</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>04745</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>IPEC</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>AVALIAÇÃO DO GOVERNO JAIR BOLSONARO - ARMA DE FOGO NO BRASIL - AUXILIO EMERGENCIAL - PANDEMIA DO CORONAVIRUS</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>02-2021</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>População acima de 16 anos</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>p2b03</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Dessas mudanças, gostaria de saber se o(a) sr(a) é a favor ou contra cada uma delas: Compra de até 60 armas para atiradores, de até 30 armas para caçadores e de até 10 armas para colecionadores sem necessidade de autorização do Exercito</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Não sabe/ Não respondeu</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
           <t>04843</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Data Folha</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Data Folha</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
         <is>
           <t>PERFIL IDEOLÓGICO</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>06-2023</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>06-2023</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>Eleitores de 16 anos ou mais</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
         <is>
           <t>p901a</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
+      <c r="J128" t="inlineStr">
         <is>
           <t>P.901 Agora vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas. - Possuir arma legalizada deveria ser um direito do cidadão para se defender</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Não sabe</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>04843</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Data Folha</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>PERFIL IDEOLÓGICO</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>06-2023</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>06-2023</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Eleitores de 16 anos ou mais</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>p901a</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>P.901 Agora vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas. - Possuir arma legalizada deveria ser um direito do cidadão para se defender</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Concorda totalmente</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>04843</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Data Folha</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>PERFIL IDEOLÓGICO</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>06-2023</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>06-2023</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Eleitores de 16 anos ou mais</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>p901a</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>P.901 Agora vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas. - Possuir arma legalizada deveria ser um direito do cidadão para se defender</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Concorda em parte</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>04843</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Data Folha</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>PERFIL IDEOLÓGICO</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>06-2023</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>06-2023</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Eleitores de 16 anos ou mais</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>p901a</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>P.901 Agora vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas. - Possuir arma legalizada deveria ser um direito do cidadão para se defender</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Discorda em parte</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>04843</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Data Folha</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>PERFIL IDEOLÓGICO</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>06-2023</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>06-2023</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Eleitores de 16 anos ou mais</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>p901a</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>P.901 Agora vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas. - Possuir arma legalizada deveria ser um direito do cidadão para se defender</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Nem concorda, nem discorda</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>04843</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Data Folha</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>PERFIL IDEOLÓGICO</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>06-2023</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>06-2023</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Eleitores de 16 anos ou mais</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>p901a</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>P.901 Agora vou ler algumas frases e gostaria que você me dissesse se concorda ou discorda de cada uma delas. - Possuir arma legalizada deveria ser um direito do cidadão para se defender</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
           <t>Discorda totalmente</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="L133" t="inlineStr">
         <is>
           <t>803</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="M133" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
